--- a/Test_Results/Test_Results_8/toa_err.xlsx
+++ b/Test_Results/Test_Results_8/toa_err.xlsx
@@ -472,13 +472,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.90697</v>
+        <v>-3.33225</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01843</v>
+        <v>-1.7599</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.16434</v>
+        <v>2.13937</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -491,17 +491,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.48931</v>
+        <v>0.11167</v>
       </c>
       <c r="C4" t="n">
-        <v>2.55065</v>
+        <v>-0.13056</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53355</v>
+        <v>-0.466</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09891</v>
+        <v>1.84916</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7273500000000001</v>
+        <v>2.55912</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.27538</v>
+        <v>100</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.54029</v>
+        <v>0.8031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17445</v>
+        <v>0.89117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4413</v>
+        <v>-0.04764</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -548,13 +548,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.68837</v>
+        <v>-0.82789</v>
       </c>
       <c r="C7" t="n">
-        <v>1.24176</v>
+        <v>15.85663</v>
       </c>
       <c r="D7" t="n">
-        <v>1.32162</v>
+        <v>-1.37523</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.85201</v>
+        <v>0.34998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.64519</v>
+        <v>0.28921</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.36146</v>
+        <v>-1.36607</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -586,17 +586,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03173</v>
+        <v>-1.5188</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.96475</v>
+        <v>-1.61244</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02593</v>
+        <v>-1.66409</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -605,13 +605,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.10869</v>
+        <v>-1.39746</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.99527</v>
+        <v>-1.13727</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.17331</v>
+        <v>-1.18109</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3224</v>
+        <v>-0.05815</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.05233</v>
+        <v>0.3109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1603</v>
+        <v>-0.75213</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
